--- a/AzentioAutomationFramework_ExcelKUBS_Kamalapriya2/Test-data/KUBSTestData.xlsx
+++ b/AzentioAutomationFramework_ExcelKUBS_Kamalapriya2/Test-data/KUBSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12345" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="KUBS_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="765">
   <si>
     <t>Stage</t>
   </si>
@@ -2283,204 +2283,12 @@
     <t>BUDY743710810</t>
   </si>
   <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>312052</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
     <t>1002439</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>968</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>312053</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>312054</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>312056</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>m 1002436</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
     <t>331</t>
   </si>
   <si>
@@ -2503,6 +2311,27 @@
   </si>
   <si>
     <t>102</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>401</t>
   </si>
 </sst>
 </file>
@@ -3048,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3078,7 +2907,7 @@
         <v>1002435</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9927,11 +9756,11 @@
         <v>661</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>814</v>
+        <v>760</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>650</v>
@@ -9972,11 +9801,11 @@
         <v>663</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>815</v>
+        <v>761</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -10017,7 +9846,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>816</v>
+        <v>752</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
@@ -10060,11 +9889,11 @@
         <v>673</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>817</v>
+        <v>762</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
@@ -10103,7 +9932,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>818</v>
+        <v>754</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
@@ -10142,7 +9971,7 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>819</v>
+        <v>755</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
@@ -10181,11 +10010,11 @@
         <v>682</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>820</v>
+        <v>763</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -10224,11 +10053,11 @@
         <v>684</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>821</v>
+        <v>764</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
@@ -10748,7 +10577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
@@ -10756,9 +10585,9 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5390625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="17.7109375" collapsed="true"/>
@@ -10868,7 +10697,7 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="4" t="s">
